--- a/dataset_7/[국적별 관광객 데이터] 이탈리아.xlsx
+++ b/dataset_7/[국적별 관광객 데이터] 이탈리아.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="141">
   <si>
     <t>국적</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>계</t>
+  </si>
+  <si>
+    <t>전년동기</t>
+  </si>
+  <si>
+    <t>성장률(%)</t>
+  </si>
+  <si>
+    <t>구성비(%)</t>
   </si>
   <si>
     <t>기준년월</t>
@@ -785,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,10 +834,19 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1157</v>
@@ -848,22 +866,31 @@
       <c r="G2">
         <v>1376</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>137</v>
+      <c r="H2">
+        <v>1451</v>
+      </c>
+      <c r="I2">
+        <v>-5.2</v>
       </c>
       <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2">
         <v>84.09999999999999</v>
       </c>
-      <c r="K2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1106</v>
@@ -883,22 +910,31 @@
       <c r="G3">
         <v>1256</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>137</v>
+      <c r="H3">
+        <v>1261</v>
+      </c>
+      <c r="I3">
+        <v>-0.4</v>
       </c>
       <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3">
         <v>88.09999999999999</v>
       </c>
-      <c r="K3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1711</v>
@@ -918,22 +954,31 @@
       <c r="G4">
         <v>1982</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>137</v>
+      <c r="H4">
+        <v>2021</v>
+      </c>
+      <c r="I4">
+        <v>-1.9</v>
       </c>
       <c r="J4">
+        <v>0.3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4">
         <v>86.3</v>
       </c>
-      <c r="K4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1457</v>
@@ -953,22 +998,31 @@
       <c r="G5">
         <v>1806</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>137</v>
+      <c r="H5">
+        <v>1950</v>
+      </c>
+      <c r="I5">
+        <v>-7.4</v>
       </c>
       <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5">
         <v>80.7</v>
       </c>
-      <c r="K5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>1810</v>
@@ -988,22 +1042,31 @@
       <c r="G6">
         <v>2408</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>137</v>
+      <c r="H6">
+        <v>1982</v>
+      </c>
+      <c r="I6">
+        <v>21.5</v>
       </c>
       <c r="J6">
+        <v>0.3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6">
         <v>75.2</v>
       </c>
-      <c r="K6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1781</v>
@@ -1023,22 +1086,31 @@
       <c r="G7">
         <v>2288</v>
       </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>137</v>
+      <c r="H7">
+        <v>1745</v>
+      </c>
+      <c r="I7">
+        <v>31.1</v>
       </c>
       <c r="J7">
+        <v>0.3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7">
         <v>77.8</v>
       </c>
-      <c r="K7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1651</v>
@@ -1058,22 +1130,31 @@
       <c r="G8">
         <v>2629</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>137</v>
+      <c r="H8">
+        <v>2542</v>
+      </c>
+      <c r="I8">
+        <v>3.4</v>
       </c>
       <c r="J8">
+        <v>0.3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8">
         <v>62.8</v>
       </c>
-      <c r="K8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1716</v>
@@ -1093,22 +1174,31 @@
       <c r="G9">
         <v>2710</v>
       </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>137</v>
+      <c r="H9">
+        <v>2548</v>
+      </c>
+      <c r="I9">
+        <v>6.4</v>
       </c>
       <c r="J9">
+        <v>0.3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9">
         <v>63.3</v>
       </c>
-      <c r="K9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1518</v>
@@ -1128,22 +1218,31 @@
       <c r="G10">
         <v>2359</v>
       </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>137</v>
+      <c r="H10">
+        <v>2146</v>
+      </c>
+      <c r="I10">
+        <v>9.9</v>
       </c>
       <c r="J10">
+        <v>0.3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10">
         <v>64.3</v>
       </c>
-      <c r="K10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="N10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>2496</v>
@@ -1163,22 +1262,31 @@
       <c r="G11">
         <v>3178</v>
       </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>137</v>
+      <c r="H11">
+        <v>2114</v>
+      </c>
+      <c r="I11">
+        <v>50.3</v>
       </c>
       <c r="J11">
+        <v>0.4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11">
         <v>78.5</v>
       </c>
-      <c r="K11">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2129</v>
@@ -1198,22 +1306,31 @@
       <c r="G12">
         <v>2475</v>
       </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>137</v>
+      <c r="H12">
+        <v>2017</v>
+      </c>
+      <c r="I12">
+        <v>22.7</v>
       </c>
       <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12">
         <v>86</v>
       </c>
-      <c r="K12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="N12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1022</v>
@@ -1233,22 +1350,31 @@
       <c r="G13">
         <v>1219</v>
       </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>137</v>
+      <c r="H13">
+        <v>1117</v>
+      </c>
+      <c r="I13">
+        <v>9.1</v>
       </c>
       <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13">
         <v>83.8</v>
       </c>
-      <c r="K13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="N13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1341</v>
@@ -1268,22 +1394,31 @@
       <c r="G14">
         <v>1590</v>
       </c>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" t="s">
-        <v>137</v>
+      <c r="H14">
+        <v>1376</v>
+      </c>
+      <c r="I14">
+        <v>15.6</v>
       </c>
       <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14">
         <v>84.3</v>
       </c>
-      <c r="K14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1356</v>
@@ -1303,22 +1438,31 @@
       <c r="G15">
         <v>1612</v>
       </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" t="s">
-        <v>137</v>
+      <c r="H15">
+        <v>1256</v>
+      </c>
+      <c r="I15">
+        <v>28.3</v>
       </c>
       <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15">
         <v>84.09999999999999</v>
       </c>
-      <c r="K15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="N15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1586</v>
@@ -1338,22 +1482,31 @@
       <c r="G16">
         <v>1852</v>
       </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>137</v>
+      <c r="H16">
+        <v>1982</v>
+      </c>
+      <c r="I16">
+        <v>-6.6</v>
       </c>
       <c r="J16">
+        <v>0.2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16">
         <v>85.59999999999999</v>
       </c>
-      <c r="K16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="N16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>1555</v>
@@ -1373,22 +1526,31 @@
       <c r="G17">
         <v>1849</v>
       </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" t="s">
-        <v>137</v>
+      <c r="H17">
+        <v>1806</v>
+      </c>
+      <c r="I17">
+        <v>2.4</v>
       </c>
       <c r="J17">
+        <v>0.2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17">
         <v>84.09999999999999</v>
       </c>
-      <c r="K17">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="N17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>1861</v>
@@ -1408,22 +1570,31 @@
       <c r="G18">
         <v>2516</v>
       </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" t="s">
-        <v>137</v>
+      <c r="H18">
+        <v>2408</v>
+      </c>
+      <c r="I18">
+        <v>4.5</v>
       </c>
       <c r="J18">
+        <v>0.3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>140</v>
+      </c>
+      <c r="M18">
         <v>74</v>
       </c>
-      <c r="K18">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="N18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>1626</v>
@@ -1443,22 +1614,31 @@
       <c r="G19">
         <v>2371</v>
       </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s">
-        <v>137</v>
+      <c r="H19">
+        <v>2288</v>
+      </c>
+      <c r="I19">
+        <v>3.6</v>
       </c>
       <c r="J19">
+        <v>0.3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19">
         <v>68.59999999999999</v>
       </c>
-      <c r="K19">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="N19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>1587</v>
@@ -1478,22 +1658,31 @@
       <c r="G20">
         <v>2315</v>
       </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" t="s">
-        <v>137</v>
+      <c r="H20">
+        <v>2629</v>
+      </c>
+      <c r="I20">
+        <v>-11.9</v>
       </c>
       <c r="J20">
+        <v>0.3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20">
         <v>68.59999999999999</v>
       </c>
-      <c r="K20">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="N20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>1879</v>
@@ -1513,22 +1702,31 @@
       <c r="G21">
         <v>2746</v>
       </c>
-      <c r="H21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" t="s">
-        <v>137</v>
+      <c r="H21">
+        <v>2710</v>
+      </c>
+      <c r="I21">
+        <v>1.3</v>
       </c>
       <c r="J21">
+        <v>0.3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21">
         <v>68.40000000000001</v>
       </c>
-      <c r="K21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="N21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>1750</v>
@@ -1548,22 +1746,31 @@
       <c r="G22">
         <v>2377</v>
       </c>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>137</v>
+      <c r="H22">
+        <v>2359</v>
+      </c>
+      <c r="I22">
+        <v>0.8</v>
       </c>
       <c r="J22">
+        <v>0.3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22">
         <v>73.59999999999999</v>
       </c>
-      <c r="K22">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>2489</v>
@@ -1583,22 +1790,31 @@
       <c r="G23">
         <v>3192</v>
       </c>
-      <c r="H23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" t="s">
-        <v>137</v>
+      <c r="H23">
+        <v>3178</v>
+      </c>
+      <c r="I23">
+        <v>0.4</v>
       </c>
       <c r="J23">
+        <v>0.3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23">
         <v>78</v>
       </c>
-      <c r="K23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="N23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>2240</v>
@@ -1618,22 +1834,31 @@
       <c r="G24">
         <v>2541</v>
       </c>
-      <c r="H24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" t="s">
-        <v>137</v>
+      <c r="H24">
+        <v>2475</v>
+      </c>
+      <c r="I24">
+        <v>2.7</v>
       </c>
       <c r="J24">
+        <v>0.3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24">
         <v>88.2</v>
       </c>
-      <c r="K24">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="N24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>1219</v>
@@ -1653,22 +1878,31 @@
       <c r="G25">
         <v>1481</v>
       </c>
-      <c r="H25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" t="s">
-        <v>137</v>
+      <c r="H25">
+        <v>1219</v>
+      </c>
+      <c r="I25">
+        <v>21.5</v>
       </c>
       <c r="J25">
+        <v>0.2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25">
         <v>82.3</v>
       </c>
-      <c r="K25">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="N25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>1320</v>
@@ -1688,22 +1922,31 @@
       <c r="G26">
         <v>1622</v>
       </c>
-      <c r="H26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" t="s">
-        <v>137</v>
+      <c r="H26">
+        <v>1590</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
       </c>
       <c r="J26">
+        <v>0.2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M26">
         <v>81.40000000000001</v>
       </c>
-      <c r="K26">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>1491</v>
@@ -1723,22 +1966,31 @@
       <c r="G27">
         <v>1801</v>
       </c>
-      <c r="H27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" t="s">
-        <v>137</v>
+      <c r="H27">
+        <v>1612</v>
+      </c>
+      <c r="I27">
+        <v>11.7</v>
       </c>
       <c r="J27">
+        <v>0.2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27">
         <v>82.8</v>
       </c>
-      <c r="K27">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="N27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>1898</v>
@@ -1758,22 +2010,31 @@
       <c r="G28">
         <v>2189</v>
       </c>
-      <c r="H28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s">
-        <v>137</v>
+      <c r="H28">
+        <v>1852</v>
+      </c>
+      <c r="I28">
+        <v>18.2</v>
       </c>
       <c r="J28">
+        <v>0.2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28">
         <v>86.7</v>
       </c>
-      <c r="K28">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="N28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>1871</v>
@@ -1793,22 +2054,31 @@
       <c r="G29">
         <v>2152</v>
       </c>
-      <c r="H29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" t="s">
-        <v>137</v>
+      <c r="H29">
+        <v>1849</v>
+      </c>
+      <c r="I29">
+        <v>16.4</v>
       </c>
       <c r="J29">
+        <v>0.2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29">
         <v>86.90000000000001</v>
       </c>
-      <c r="K29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="N29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>2309</v>
@@ -1828,22 +2098,31 @@
       <c r="G30">
         <v>2894</v>
       </c>
-      <c r="H30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" t="s">
-        <v>137</v>
+      <c r="H30">
+        <v>2516</v>
+      </c>
+      <c r="I30">
+        <v>15</v>
       </c>
       <c r="J30">
+        <v>0.3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M30">
         <v>79.8</v>
       </c>
-      <c r="K30">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="N30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B31">
         <v>1914</v>
@@ -1863,22 +2142,31 @@
       <c r="G31">
         <v>2687</v>
       </c>
-      <c r="H31" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" t="s">
-        <v>137</v>
+      <c r="H31">
+        <v>2371</v>
+      </c>
+      <c r="I31">
+        <v>13.3</v>
       </c>
       <c r="J31">
+        <v>0.3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31">
         <v>71.2</v>
       </c>
-      <c r="K31">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="N31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>1981</v>
@@ -1898,22 +2186,31 @@
       <c r="G32">
         <v>2494</v>
       </c>
-      <c r="H32" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" t="s">
-        <v>137</v>
+      <c r="H32">
+        <v>2315</v>
+      </c>
+      <c r="I32">
+        <v>7.7</v>
       </c>
       <c r="J32">
+        <v>0.2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32">
         <v>79.40000000000001</v>
       </c>
-      <c r="K32">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="N32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>1601</v>
@@ -1933,22 +2230,31 @@
       <c r="G33">
         <v>2508</v>
       </c>
-      <c r="H33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" t="s">
-        <v>137</v>
+      <c r="H33">
+        <v>2746</v>
+      </c>
+      <c r="I33">
+        <v>-8.699999999999999</v>
       </c>
       <c r="J33">
+        <v>0.2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" t="s">
+        <v>140</v>
+      </c>
+      <c r="M33">
         <v>63.8</v>
       </c>
-      <c r="K33">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="N33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <v>1903</v>
@@ -1968,22 +2274,31 @@
       <c r="G34">
         <v>2623</v>
       </c>
-      <c r="H34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" t="s">
-        <v>137</v>
+      <c r="H34">
+        <v>2377</v>
+      </c>
+      <c r="I34">
+        <v>10.3</v>
       </c>
       <c r="J34">
+        <v>0.3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" t="s">
+        <v>140</v>
+      </c>
+      <c r="M34">
         <v>72.59999999999999</v>
       </c>
-      <c r="K34">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="N34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>2688</v>
@@ -2003,22 +2318,31 @@
       <c r="G35">
         <v>3694</v>
       </c>
-      <c r="H35" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" t="s">
-        <v>137</v>
+      <c r="H35">
+        <v>3192</v>
+      </c>
+      <c r="I35">
+        <v>15.7</v>
       </c>
       <c r="J35">
+        <v>0.4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35">
         <v>72.8</v>
       </c>
-      <c r="K35">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="N35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>2267</v>
@@ -2038,22 +2362,31 @@
       <c r="G36">
         <v>2630</v>
       </c>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" t="s">
-        <v>137</v>
+      <c r="H36">
+        <v>2541</v>
+      </c>
+      <c r="I36">
+        <v>3.5</v>
       </c>
       <c r="J36">
+        <v>0.3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" t="s">
+        <v>140</v>
+      </c>
+      <c r="M36">
         <v>86.2</v>
       </c>
-      <c r="K36">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="N36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>1351</v>
@@ -2073,22 +2406,31 @@
       <c r="G37">
         <v>1647</v>
       </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
-        <v>137</v>
+      <c r="H37">
+        <v>1481</v>
+      </c>
+      <c r="I37">
+        <v>11.2</v>
       </c>
       <c r="J37">
+        <v>0.2</v>
+      </c>
+      <c r="K37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" t="s">
+        <v>140</v>
+      </c>
+      <c r="M37">
         <v>82</v>
       </c>
-      <c r="K37">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="N37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>1425</v>
@@ -2108,22 +2450,31 @@
       <c r="G38">
         <v>1749</v>
       </c>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" t="s">
-        <v>137</v>
+      <c r="H38">
+        <v>1622</v>
+      </c>
+      <c r="I38">
+        <v>7.8</v>
       </c>
       <c r="J38">
+        <v>0.2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" t="s">
+        <v>140</v>
+      </c>
+      <c r="M38">
         <v>81.5</v>
       </c>
-      <c r="K38">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="N38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>1440</v>
@@ -2143,22 +2494,31 @@
       <c r="G39">
         <v>1879</v>
       </c>
-      <c r="H39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" t="s">
-        <v>137</v>
+      <c r="H39">
+        <v>1801</v>
+      </c>
+      <c r="I39">
+        <v>4.3</v>
       </c>
       <c r="J39">
+        <v>0.2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" t="s">
+        <v>140</v>
+      </c>
+      <c r="M39">
         <v>76.59999999999999</v>
       </c>
-      <c r="K39">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="N39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>2144</v>
@@ -2178,22 +2538,31 @@
       <c r="G40">
         <v>3765</v>
       </c>
-      <c r="H40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" t="s">
-        <v>137</v>
+      <c r="H40">
+        <v>2189</v>
+      </c>
+      <c r="I40">
+        <v>72</v>
       </c>
       <c r="J40">
+        <v>0.4</v>
+      </c>
+      <c r="K40" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" t="s">
+        <v>140</v>
+      </c>
+      <c r="M40">
         <v>56.9</v>
       </c>
-      <c r="K40">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="N40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>1765</v>
@@ -2213,22 +2582,31 @@
       <c r="G41">
         <v>2792</v>
       </c>
-      <c r="H41" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" t="s">
-        <v>137</v>
+      <c r="H41">
+        <v>2152</v>
+      </c>
+      <c r="I41">
+        <v>29.7</v>
       </c>
       <c r="J41">
+        <v>0.3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" t="s">
+        <v>140</v>
+      </c>
+      <c r="M41">
         <v>63.2</v>
       </c>
-      <c r="K41">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="N41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>1992</v>
@@ -2248,22 +2626,31 @@
       <c r="G42">
         <v>2871</v>
       </c>
-      <c r="H42" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" t="s">
-        <v>137</v>
+      <c r="H42">
+        <v>2894</v>
+      </c>
+      <c r="I42">
+        <v>-0.8</v>
       </c>
       <c r="J42">
+        <v>0.3</v>
+      </c>
+      <c r="K42" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" t="s">
+        <v>140</v>
+      </c>
+      <c r="M42">
         <v>69.40000000000001</v>
       </c>
-      <c r="K42">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="N42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>2009</v>
@@ -2283,22 +2670,31 @@
       <c r="G43">
         <v>3456</v>
       </c>
-      <c r="H43" t="s">
-        <v>53</v>
-      </c>
-      <c r="I43" t="s">
-        <v>137</v>
+      <c r="H43">
+        <v>2687</v>
+      </c>
+      <c r="I43">
+        <v>28.6</v>
       </c>
       <c r="J43">
+        <v>0.3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" t="s">
+        <v>140</v>
+      </c>
+      <c r="M43">
         <v>58.1</v>
       </c>
-      <c r="K43">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="N43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>2087</v>
@@ -2318,22 +2714,31 @@
       <c r="G44">
         <v>4199</v>
       </c>
-      <c r="H44" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" t="s">
-        <v>137</v>
+      <c r="H44">
+        <v>2494</v>
+      </c>
+      <c r="I44">
+        <v>68.40000000000001</v>
       </c>
       <c r="J44">
+        <v>0.3</v>
+      </c>
+      <c r="K44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" t="s">
+        <v>140</v>
+      </c>
+      <c r="M44">
         <v>49.7</v>
       </c>
-      <c r="K44">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="N44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B45">
         <v>1925</v>
@@ -2353,22 +2758,31 @@
       <c r="G45">
         <v>3839</v>
       </c>
-      <c r="H45" t="s">
-        <v>55</v>
-      </c>
-      <c r="I45" t="s">
-        <v>137</v>
+      <c r="H45">
+        <v>2508</v>
+      </c>
+      <c r="I45">
+        <v>53.1</v>
       </c>
       <c r="J45">
+        <v>0.3</v>
+      </c>
+      <c r="K45" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" t="s">
+        <v>140</v>
+      </c>
+      <c r="M45">
         <v>50.1</v>
       </c>
-      <c r="K45">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="N45">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>2087</v>
@@ -2388,22 +2802,31 @@
       <c r="G46">
         <v>4068</v>
       </c>
-      <c r="H46" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46" t="s">
-        <v>137</v>
+      <c r="H46">
+        <v>2623</v>
+      </c>
+      <c r="I46">
+        <v>55.1</v>
       </c>
       <c r="J46">
+        <v>0.4</v>
+      </c>
+      <c r="K46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L46" t="s">
+        <v>140</v>
+      </c>
+      <c r="M46">
         <v>51.3</v>
       </c>
-      <c r="K46">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="N46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B47">
         <v>2827</v>
@@ -2423,22 +2846,31 @@
       <c r="G47">
         <v>4110</v>
       </c>
-      <c r="H47" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" t="s">
-        <v>137</v>
+      <c r="H47">
+        <v>3694</v>
+      </c>
+      <c r="I47">
+        <v>11.3</v>
       </c>
       <c r="J47">
+        <v>0.4</v>
+      </c>
+      <c r="K47" t="s">
+        <v>60</v>
+      </c>
+      <c r="L47" t="s">
+        <v>140</v>
+      </c>
+      <c r="M47">
         <v>68.8</v>
       </c>
-      <c r="K47">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="N47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B48">
         <v>2383</v>
@@ -2458,22 +2890,31 @@
       <c r="G48">
         <v>3570</v>
       </c>
-      <c r="H48" t="s">
-        <v>58</v>
-      </c>
-      <c r="I48" t="s">
-        <v>137</v>
+      <c r="H48">
+        <v>2630</v>
+      </c>
+      <c r="I48">
+        <v>35.7</v>
       </c>
       <c r="J48">
+        <v>0.4</v>
+      </c>
+      <c r="K48" t="s">
+        <v>61</v>
+      </c>
+      <c r="L48" t="s">
+        <v>140</v>
+      </c>
+      <c r="M48">
         <v>66.8</v>
       </c>
-      <c r="K48">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="N48">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>1531</v>
@@ -2493,22 +2934,31 @@
       <c r="G49">
         <v>2417</v>
       </c>
-      <c r="H49" t="s">
-        <v>59</v>
-      </c>
-      <c r="I49" t="s">
-        <v>137</v>
+      <c r="H49">
+        <v>1647</v>
+      </c>
+      <c r="I49">
+        <v>46.8</v>
       </c>
       <c r="J49">
+        <v>0.3</v>
+      </c>
+      <c r="K49" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49" t="s">
+        <v>140</v>
+      </c>
+      <c r="M49">
         <v>63.3</v>
       </c>
-      <c r="K49">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="N49">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B50">
         <v>1412</v>
@@ -2528,22 +2978,31 @@
       <c r="G50">
         <v>2579</v>
       </c>
-      <c r="H50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" t="s">
-        <v>137</v>
+      <c r="H50">
+        <v>1749</v>
+      </c>
+      <c r="I50">
+        <v>47.5</v>
       </c>
       <c r="J50">
+        <v>0.3</v>
+      </c>
+      <c r="K50" t="s">
+        <v>63</v>
+      </c>
+      <c r="L50" t="s">
+        <v>140</v>
+      </c>
+      <c r="M50">
         <v>54.7</v>
       </c>
-      <c r="K50">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="N50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>1864</v>
@@ -2563,22 +3022,31 @@
       <c r="G51">
         <v>3029</v>
       </c>
-      <c r="H51" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" t="s">
-        <v>137</v>
+      <c r="H51">
+        <v>1879</v>
+      </c>
+      <c r="I51">
+        <v>61.2</v>
       </c>
       <c r="J51">
+        <v>0.3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" t="s">
+        <v>140</v>
+      </c>
+      <c r="M51">
         <v>61.5</v>
       </c>
-      <c r="K51">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="N51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B52">
         <v>2643</v>
@@ -2598,22 +3066,31 @@
       <c r="G52">
         <v>4374</v>
       </c>
-      <c r="H52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I52" t="s">
-        <v>137</v>
+      <c r="H52">
+        <v>3765</v>
+      </c>
+      <c r="I52">
+        <v>16.2</v>
       </c>
       <c r="J52">
+        <v>0.4</v>
+      </c>
+      <c r="K52" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" t="s">
+        <v>140</v>
+      </c>
+      <c r="M52">
         <v>60.4</v>
       </c>
-      <c r="K52">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="N52">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B53">
         <v>2436</v>
@@ -2633,22 +3110,31 @@
       <c r="G53">
         <v>4488</v>
       </c>
-      <c r="H53" t="s">
-        <v>63</v>
-      </c>
-      <c r="I53" t="s">
-        <v>137</v>
+      <c r="H53">
+        <v>2792</v>
+      </c>
+      <c r="I53">
+        <v>60.7</v>
       </c>
       <c r="J53">
+        <v>0.4</v>
+      </c>
+      <c r="K53" t="s">
+        <v>66</v>
+      </c>
+      <c r="L53" t="s">
+        <v>140</v>
+      </c>
+      <c r="M53">
         <v>54.3</v>
       </c>
-      <c r="K53">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="N53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <v>2352</v>
@@ -2668,22 +3154,31 @@
       <c r="G54">
         <v>3931</v>
       </c>
-      <c r="H54" t="s">
-        <v>64</v>
-      </c>
-      <c r="I54" t="s">
-        <v>137</v>
+      <c r="H54">
+        <v>2871</v>
+      </c>
+      <c r="I54">
+        <v>36.9</v>
       </c>
       <c r="J54">
+        <v>0.3</v>
+      </c>
+      <c r="K54" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54" t="s">
+        <v>140</v>
+      </c>
+      <c r="M54">
         <v>59.8</v>
       </c>
-      <c r="K54">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="N54">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B55">
         <v>2562</v>
@@ -2703,22 +3198,31 @@
       <c r="G55">
         <v>5154</v>
       </c>
-      <c r="H55" t="s">
-        <v>65</v>
-      </c>
-      <c r="I55" t="s">
-        <v>137</v>
+      <c r="H55">
+        <v>3456</v>
+      </c>
+      <c r="I55">
+        <v>49.1</v>
       </c>
       <c r="J55">
+        <v>0.4</v>
+      </c>
+      <c r="K55" t="s">
+        <v>68</v>
+      </c>
+      <c r="L55" t="s">
+        <v>140</v>
+      </c>
+      <c r="M55">
         <v>49.7</v>
       </c>
-      <c r="K55">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="N55">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>2342</v>
@@ -2738,22 +3242,31 @@
       <c r="G56">
         <v>4202</v>
       </c>
-      <c r="H56" t="s">
-        <v>66</v>
-      </c>
-      <c r="I56" t="s">
-        <v>137</v>
+      <c r="H56">
+        <v>4199</v>
+      </c>
+      <c r="I56">
+        <v>0.1</v>
       </c>
       <c r="J56">
+        <v>0.3</v>
+      </c>
+      <c r="K56" t="s">
+        <v>69</v>
+      </c>
+      <c r="L56" t="s">
+        <v>140</v>
+      </c>
+      <c r="M56">
         <v>55.7</v>
       </c>
-      <c r="K56">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="N56">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B57">
         <v>2099</v>
@@ -2773,22 +3286,31 @@
       <c r="G57">
         <v>4633</v>
       </c>
-      <c r="H57" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" t="s">
-        <v>137</v>
+      <c r="H57">
+        <v>3839</v>
+      </c>
+      <c r="I57">
+        <v>20.7</v>
       </c>
       <c r="J57">
+        <v>0.3</v>
+      </c>
+      <c r="K57" t="s">
+        <v>70</v>
+      </c>
+      <c r="L57" t="s">
+        <v>140</v>
+      </c>
+      <c r="M57">
         <v>45.3</v>
       </c>
-      <c r="K57">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="N57">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B58">
         <v>2359</v>
@@ -2808,22 +3330,31 @@
       <c r="G58">
         <v>4452</v>
       </c>
-      <c r="H58" t="s">
-        <v>68</v>
-      </c>
-      <c r="I58" t="s">
-        <v>137</v>
+      <c r="H58">
+        <v>4068</v>
+      </c>
+      <c r="I58">
+        <v>9.4</v>
       </c>
       <c r="J58">
+        <v>0.4</v>
+      </c>
+      <c r="K58" t="s">
+        <v>71</v>
+      </c>
+      <c r="L58" t="s">
+        <v>140</v>
+      </c>
+      <c r="M58">
         <v>53</v>
       </c>
-      <c r="K58">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="N58">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>2855</v>
@@ -2843,22 +3374,31 @@
       <c r="G59">
         <v>4668</v>
       </c>
-      <c r="H59" t="s">
-        <v>69</v>
-      </c>
-      <c r="I59" t="s">
-        <v>137</v>
+      <c r="H59">
+        <v>4110</v>
+      </c>
+      <c r="I59">
+        <v>13.6</v>
       </c>
       <c r="J59">
+        <v>0.4</v>
+      </c>
+      <c r="K59" t="s">
+        <v>72</v>
+      </c>
+      <c r="L59" t="s">
+        <v>140</v>
+      </c>
+      <c r="M59">
         <v>61.2</v>
       </c>
-      <c r="K59">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="N59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B60">
         <v>2767</v>
@@ -2878,22 +3418,31 @@
       <c r="G60">
         <v>4119</v>
       </c>
-      <c r="H60" t="s">
-        <v>70</v>
-      </c>
-      <c r="I60" t="s">
-        <v>137</v>
+      <c r="H60">
+        <v>3570</v>
+      </c>
+      <c r="I60">
+        <v>15.4</v>
       </c>
       <c r="J60">
+        <v>0.4</v>
+      </c>
+      <c r="K60" t="s">
+        <v>73</v>
+      </c>
+      <c r="L60" t="s">
+        <v>140</v>
+      </c>
+      <c r="M60">
         <v>67.2</v>
       </c>
-      <c r="K60">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="N60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B61">
         <v>1600</v>
@@ -2913,22 +3462,31 @@
       <c r="G61">
         <v>2721</v>
       </c>
-      <c r="H61" t="s">
-        <v>71</v>
-      </c>
-      <c r="I61" t="s">
-        <v>137</v>
+      <c r="H61">
+        <v>2417</v>
+      </c>
+      <c r="I61">
+        <v>12.6</v>
       </c>
       <c r="J61">
+        <v>0.3</v>
+      </c>
+      <c r="K61" t="s">
+        <v>74</v>
+      </c>
+      <c r="L61" t="s">
+        <v>140</v>
+      </c>
+      <c r="M61">
         <v>58.8</v>
       </c>
-      <c r="K61">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="N61">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B62">
         <v>1524</v>
@@ -2948,22 +3506,31 @@
       <c r="G62">
         <v>2090</v>
       </c>
-      <c r="H62" t="s">
-        <v>72</v>
-      </c>
-      <c r="I62" t="s">
-        <v>137</v>
+      <c r="H62">
+        <v>2579</v>
+      </c>
+      <c r="I62">
+        <v>-19</v>
       </c>
       <c r="J62">
+        <v>0.2</v>
+      </c>
+      <c r="K62" t="s">
+        <v>75</v>
+      </c>
+      <c r="L62" t="s">
+        <v>140</v>
+      </c>
+      <c r="M62">
         <v>72.90000000000001</v>
       </c>
-      <c r="K62">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="N62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B63">
         <v>1830</v>
@@ -2983,22 +3550,31 @@
       <c r="G63">
         <v>3003</v>
       </c>
-      <c r="H63" t="s">
-        <v>73</v>
-      </c>
-      <c r="I63" t="s">
-        <v>137</v>
+      <c r="H63">
+        <v>3029</v>
+      </c>
+      <c r="I63">
+        <v>-0.9</v>
       </c>
       <c r="J63">
+        <v>0.3</v>
+      </c>
+      <c r="K63" t="s">
+        <v>76</v>
+      </c>
+      <c r="L63" t="s">
+        <v>140</v>
+      </c>
+      <c r="M63">
         <v>60.9</v>
       </c>
-      <c r="K63">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="N63">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B64">
         <v>2537</v>
@@ -3018,22 +3594,31 @@
       <c r="G64">
         <v>3773</v>
       </c>
-      <c r="H64" t="s">
-        <v>74</v>
-      </c>
-      <c r="I64" t="s">
-        <v>137</v>
+      <c r="H64">
+        <v>4374</v>
+      </c>
+      <c r="I64">
+        <v>-13.7</v>
       </c>
       <c r="J64">
+        <v>0.3</v>
+      </c>
+      <c r="K64" t="s">
+        <v>77</v>
+      </c>
+      <c r="L64" t="s">
+        <v>140</v>
+      </c>
+      <c r="M64">
         <v>67.2</v>
       </c>
-      <c r="K64">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="N64">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B65">
         <v>2401</v>
@@ -3053,22 +3638,31 @@
       <c r="G65">
         <v>3852</v>
       </c>
-      <c r="H65" t="s">
-        <v>75</v>
-      </c>
-      <c r="I65" t="s">
-        <v>137</v>
+      <c r="H65">
+        <v>4488</v>
+      </c>
+      <c r="I65">
+        <v>-14.2</v>
       </c>
       <c r="J65">
+        <v>0.3</v>
+      </c>
+      <c r="K65" t="s">
+        <v>78</v>
+      </c>
+      <c r="L65" t="s">
+        <v>140</v>
+      </c>
+      <c r="M65">
         <v>62.3</v>
       </c>
-      <c r="K65">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="N65">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>2339</v>
@@ -3088,22 +3682,31 @@
       <c r="G66">
         <v>4029</v>
       </c>
-      <c r="H66" t="s">
-        <v>76</v>
-      </c>
-      <c r="I66" t="s">
-        <v>137</v>
+      <c r="H66">
+        <v>3931</v>
+      </c>
+      <c r="I66">
+        <v>2.5</v>
       </c>
       <c r="J66">
+        <v>0.3</v>
+      </c>
+      <c r="K66" t="s">
+        <v>79</v>
+      </c>
+      <c r="L66" t="s">
+        <v>140</v>
+      </c>
+      <c r="M66">
         <v>58.1</v>
       </c>
-      <c r="K66">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="N66">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B67">
         <v>2055</v>
@@ -3123,22 +3726,31 @@
       <c r="G67">
         <v>3985</v>
       </c>
-      <c r="H67" t="s">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s">
-        <v>137</v>
+      <c r="H67">
+        <v>5154</v>
+      </c>
+      <c r="I67">
+        <v>-22.7</v>
       </c>
       <c r="J67">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="s">
+        <v>80</v>
+      </c>
+      <c r="L67" t="s">
+        <v>140</v>
+      </c>
+      <c r="M67">
         <v>51.6</v>
       </c>
-      <c r="K67">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="N67">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B68">
         <v>2268</v>
@@ -3158,22 +3770,31 @@
       <c r="G68">
         <v>3500</v>
       </c>
-      <c r="H68" t="s">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s">
-        <v>137</v>
+      <c r="H68">
+        <v>4202</v>
+      </c>
+      <c r="I68">
+        <v>-16.7</v>
       </c>
       <c r="J68">
+        <v>0.6</v>
+      </c>
+      <c r="K68" t="s">
+        <v>81</v>
+      </c>
+      <c r="L68" t="s">
+        <v>140</v>
+      </c>
+      <c r="M68">
         <v>64.8</v>
       </c>
-      <c r="K68">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="N68">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B69">
         <v>2263</v>
@@ -3193,22 +3814,31 @@
       <c r="G69">
         <v>4324</v>
       </c>
-      <c r="H69" t="s">
-        <v>79</v>
-      </c>
-      <c r="I69" t="s">
-        <v>137</v>
+      <c r="H69">
+        <v>4633</v>
+      </c>
+      <c r="I69">
+        <v>-6.7</v>
       </c>
       <c r="J69">
+        <v>0.4</v>
+      </c>
+      <c r="K69" t="s">
+        <v>82</v>
+      </c>
+      <c r="L69" t="s">
+        <v>140</v>
+      </c>
+      <c r="M69">
         <v>52.3</v>
       </c>
-      <c r="K69">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="N69">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B70">
         <v>2411</v>
@@ -3228,22 +3858,31 @@
       <c r="G70">
         <v>4535</v>
       </c>
-      <c r="H70" t="s">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s">
-        <v>137</v>
+      <c r="H70">
+        <v>4452</v>
+      </c>
+      <c r="I70">
+        <v>1.9</v>
       </c>
       <c r="J70">
+        <v>0.4</v>
+      </c>
+      <c r="K70" t="s">
+        <v>83</v>
+      </c>
+      <c r="L70" t="s">
+        <v>140</v>
+      </c>
+      <c r="M70">
         <v>53.2</v>
       </c>
-      <c r="K70">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="N70">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B71">
         <v>3379</v>
@@ -3263,22 +3902,31 @@
       <c r="G71">
         <v>5445</v>
       </c>
-      <c r="H71" t="s">
-        <v>81</v>
-      </c>
-      <c r="I71" t="s">
-        <v>137</v>
+      <c r="H71">
+        <v>4668</v>
+      </c>
+      <c r="I71">
+        <v>16.6</v>
       </c>
       <c r="J71">
+        <v>0.4</v>
+      </c>
+      <c r="K71" t="s">
+        <v>84</v>
+      </c>
+      <c r="L71" t="s">
+        <v>140</v>
+      </c>
+      <c r="M71">
         <v>62.1</v>
       </c>
-      <c r="K71">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="N71">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>3008</v>
@@ -3298,22 +3946,31 @@
       <c r="G72">
         <v>4598</v>
       </c>
-      <c r="H72" t="s">
-        <v>82</v>
-      </c>
-      <c r="I72" t="s">
-        <v>137</v>
+      <c r="H72">
+        <v>4119</v>
+      </c>
+      <c r="I72">
+        <v>11.6</v>
       </c>
       <c r="J72">
+        <v>0.4</v>
+      </c>
+      <c r="K72" t="s">
+        <v>85</v>
+      </c>
+      <c r="L72" t="s">
+        <v>140</v>
+      </c>
+      <c r="M72">
         <v>65.40000000000001</v>
       </c>
-      <c r="K72">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="N72">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>1681</v>
@@ -3333,22 +3990,31 @@
       <c r="G73">
         <v>3013</v>
       </c>
-      <c r="H73" t="s">
-        <v>83</v>
-      </c>
-      <c r="I73" t="s">
-        <v>137</v>
+      <c r="H73">
+        <v>2721</v>
+      </c>
+      <c r="I73">
+        <v>10.7</v>
       </c>
       <c r="J73">
+        <v>0.3</v>
+      </c>
+      <c r="K73" t="s">
+        <v>86</v>
+      </c>
+      <c r="L73" t="s">
+        <v>140</v>
+      </c>
+      <c r="M73">
         <v>55.8</v>
       </c>
-      <c r="K73">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="N73">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B74">
         <v>1828</v>
@@ -3368,22 +4034,31 @@
       <c r="G74">
         <v>3272</v>
       </c>
-      <c r="H74" t="s">
-        <v>84</v>
-      </c>
-      <c r="I74" t="s">
-        <v>137</v>
+      <c r="H74">
+        <v>2090</v>
+      </c>
+      <c r="I74">
+        <v>56.6</v>
       </c>
       <c r="J74">
+        <v>0.3</v>
+      </c>
+      <c r="K74" t="s">
+        <v>87</v>
+      </c>
+      <c r="L74" t="s">
+        <v>140</v>
+      </c>
+      <c r="M74">
         <v>55.9</v>
       </c>
-      <c r="K74">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="N74">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B75">
         <v>1758</v>
@@ -3403,22 +4078,31 @@
       <c r="G75">
         <v>3244</v>
       </c>
-      <c r="H75" t="s">
-        <v>85</v>
-      </c>
-      <c r="I75" t="s">
-        <v>137</v>
+      <c r="H75">
+        <v>3003</v>
+      </c>
+      <c r="I75">
+        <v>8</v>
       </c>
       <c r="J75">
+        <v>0.3</v>
+      </c>
+      <c r="K75" t="s">
+        <v>88</v>
+      </c>
+      <c r="L75" t="s">
+        <v>140</v>
+      </c>
+      <c r="M75">
         <v>54.2</v>
       </c>
-      <c r="K75">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="N75">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B76">
         <v>2592</v>
@@ -3438,22 +4122,31 @@
       <c r="G76">
         <v>4468</v>
       </c>
-      <c r="H76" t="s">
-        <v>86</v>
-      </c>
-      <c r="I76" t="s">
-        <v>137</v>
+      <c r="H76">
+        <v>3773</v>
+      </c>
+      <c r="I76">
+        <v>18.4</v>
       </c>
       <c r="J76">
+        <v>0.3</v>
+      </c>
+      <c r="K76" t="s">
+        <v>89</v>
+      </c>
+      <c r="L76" t="s">
+        <v>140</v>
+      </c>
+      <c r="M76">
         <v>58</v>
       </c>
-      <c r="K76">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="N76">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B77">
         <v>2844</v>
@@ -3473,22 +4166,31 @@
       <c r="G77">
         <v>4994</v>
       </c>
-      <c r="H77" t="s">
-        <v>87</v>
-      </c>
-      <c r="I77" t="s">
-        <v>137</v>
+      <c r="H77">
+        <v>3852</v>
+      </c>
+      <c r="I77">
+        <v>29.6</v>
       </c>
       <c r="J77">
+        <v>0.3</v>
+      </c>
+      <c r="K77" t="s">
+        <v>90</v>
+      </c>
+      <c r="L77" t="s">
+        <v>140</v>
+      </c>
+      <c r="M77">
         <v>56.9</v>
       </c>
-      <c r="K77">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="N77">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B78">
         <v>3152</v>
@@ -3508,22 +4210,31 @@
       <c r="G78">
         <v>6780</v>
       </c>
-      <c r="H78" t="s">
-        <v>88</v>
-      </c>
-      <c r="I78" t="s">
-        <v>137</v>
+      <c r="H78">
+        <v>4029</v>
+      </c>
+      <c r="I78">
+        <v>68.3</v>
       </c>
       <c r="J78">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="s">
+        <v>91</v>
+      </c>
+      <c r="L78" t="s">
+        <v>140</v>
+      </c>
+      <c r="M78">
         <v>46.5</v>
       </c>
-      <c r="K78">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="N78">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B79">
         <v>2657</v>
@@ -3543,22 +4254,31 @@
       <c r="G79">
         <v>5841</v>
       </c>
-      <c r="H79" t="s">
-        <v>89</v>
-      </c>
-      <c r="I79" t="s">
-        <v>137</v>
+      <c r="H79">
+        <v>3985</v>
+      </c>
+      <c r="I79">
+        <v>46.6</v>
       </c>
       <c r="J79">
+        <v>0.4</v>
+      </c>
+      <c r="K79" t="s">
+        <v>92</v>
+      </c>
+      <c r="L79" t="s">
+        <v>140</v>
+      </c>
+      <c r="M79">
         <v>45.5</v>
       </c>
-      <c r="K79">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="N79">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B80">
         <v>2519</v>
@@ -3578,22 +4298,31 @@
       <c r="G80">
         <v>6229</v>
       </c>
-      <c r="H80" t="s">
-        <v>90</v>
-      </c>
-      <c r="I80" t="s">
-        <v>137</v>
+      <c r="H80">
+        <v>3500</v>
+      </c>
+      <c r="I80">
+        <v>78</v>
       </c>
       <c r="J80">
+        <v>0.4</v>
+      </c>
+      <c r="K80" t="s">
+        <v>93</v>
+      </c>
+      <c r="L80" t="s">
+        <v>140</v>
+      </c>
+      <c r="M80">
         <v>40.4</v>
       </c>
-      <c r="K80">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="N80">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B81">
         <v>2631</v>
@@ -3613,22 +4342,31 @@
       <c r="G81">
         <v>6523</v>
       </c>
-      <c r="H81" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" t="s">
-        <v>137</v>
+      <c r="H81">
+        <v>4324</v>
+      </c>
+      <c r="I81">
+        <v>50.9</v>
       </c>
       <c r="J81">
+        <v>0.4</v>
+      </c>
+      <c r="K81" t="s">
+        <v>94</v>
+      </c>
+      <c r="L81" t="s">
+        <v>140</v>
+      </c>
+      <c r="M81">
         <v>40.3</v>
       </c>
-      <c r="K81">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="N81">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>2683</v>
@@ -3648,22 +4386,31 @@
       <c r="G82">
         <v>6489</v>
       </c>
-      <c r="H82" t="s">
-        <v>92</v>
-      </c>
-      <c r="I82" t="s">
-        <v>137</v>
+      <c r="H82">
+        <v>4535</v>
+      </c>
+      <c r="I82">
+        <v>43.1</v>
       </c>
       <c r="J82">
+        <v>0.4</v>
+      </c>
+      <c r="K82" t="s">
+        <v>95</v>
+      </c>
+      <c r="L82" t="s">
+        <v>140</v>
+      </c>
+      <c r="M82">
         <v>41.3</v>
       </c>
-      <c r="K82">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="N82">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B83">
         <v>3569</v>
@@ -3683,22 +4430,31 @@
       <c r="G83">
         <v>6345</v>
       </c>
-      <c r="H83" t="s">
-        <v>93</v>
-      </c>
-      <c r="I83" t="s">
-        <v>137</v>
+      <c r="H83">
+        <v>5445</v>
+      </c>
+      <c r="I83">
+        <v>16.5</v>
       </c>
       <c r="J83">
+        <v>0.4</v>
+      </c>
+      <c r="K83" t="s">
+        <v>96</v>
+      </c>
+      <c r="L83" t="s">
+        <v>140</v>
+      </c>
+      <c r="M83">
         <v>56.2</v>
       </c>
-      <c r="K83">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="N83">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>3098</v>
@@ -3718,22 +4474,31 @@
       <c r="G84">
         <v>5809</v>
       </c>
-      <c r="H84" t="s">
-        <v>94</v>
-      </c>
-      <c r="I84" t="s">
-        <v>137</v>
+      <c r="H84">
+        <v>4598</v>
+      </c>
+      <c r="I84">
+        <v>26.3</v>
       </c>
       <c r="J84">
+        <v>0.4</v>
+      </c>
+      <c r="K84" t="s">
+        <v>97</v>
+      </c>
+      <c r="L84" t="s">
+        <v>140</v>
+      </c>
+      <c r="M84">
         <v>53.3</v>
       </c>
-      <c r="K84">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="N84">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B85">
         <v>1777</v>
@@ -3753,22 +4518,31 @@
       <c r="G85">
         <v>3912</v>
       </c>
-      <c r="H85" t="s">
-        <v>95</v>
-      </c>
-      <c r="I85" t="s">
-        <v>137</v>
+      <c r="H85">
+        <v>3013</v>
+      </c>
+      <c r="I85">
+        <v>29.8</v>
       </c>
       <c r="J85">
+        <v>0.3</v>
+      </c>
+      <c r="K85" t="s">
+        <v>98</v>
+      </c>
+      <c r="L85" t="s">
+        <v>140</v>
+      </c>
+      <c r="M85">
         <v>45.4</v>
       </c>
-      <c r="K85">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="N85">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B86">
         <v>1799</v>
@@ -3788,22 +4562,31 @@
       <c r="G86">
         <v>3885</v>
       </c>
-      <c r="H86" t="s">
-        <v>96</v>
-      </c>
-      <c r="I86" t="s">
-        <v>137</v>
+      <c r="H86">
+        <v>3272</v>
+      </c>
+      <c r="I86">
+        <v>18.7</v>
       </c>
       <c r="J86">
+        <v>0.3</v>
+      </c>
+      <c r="K86" t="s">
+        <v>99</v>
+      </c>
+      <c r="L86" t="s">
+        <v>140</v>
+      </c>
+      <c r="M86">
         <v>46.3</v>
       </c>
-      <c r="K86">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="N86">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B87">
         <v>2120</v>
@@ -3823,22 +4606,31 @@
       <c r="G87">
         <v>4025</v>
       </c>
-      <c r="H87" t="s">
-        <v>97</v>
-      </c>
-      <c r="I87" t="s">
-        <v>137</v>
+      <c r="H87">
+        <v>3244</v>
+      </c>
+      <c r="I87">
+        <v>24.1</v>
       </c>
       <c r="J87">
+        <v>0.3</v>
+      </c>
+      <c r="K87" t="s">
+        <v>100</v>
+      </c>
+      <c r="L87" t="s">
+        <v>140</v>
+      </c>
+      <c r="M87">
         <v>52.7</v>
       </c>
-      <c r="K87">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="N87">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B88">
         <v>2722</v>
@@ -3858,22 +4650,31 @@
       <c r="G88">
         <v>3977</v>
       </c>
-      <c r="H88" t="s">
-        <v>98</v>
-      </c>
-      <c r="I88" t="s">
-        <v>137</v>
+      <c r="H88">
+        <v>4468</v>
+      </c>
+      <c r="I88">
+        <v>-11</v>
       </c>
       <c r="J88">
+        <v>0.3</v>
+      </c>
+      <c r="K88" t="s">
+        <v>101</v>
+      </c>
+      <c r="L88" t="s">
+        <v>140</v>
+      </c>
+      <c r="M88">
         <v>68.40000000000001</v>
       </c>
-      <c r="K88">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="N88">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B89">
         <v>2638</v>
@@ -3893,22 +4694,31 @@
       <c r="G89">
         <v>3389</v>
       </c>
-      <c r="H89" t="s">
-        <v>99</v>
-      </c>
-      <c r="I89" t="s">
-        <v>137</v>
+      <c r="H89">
+        <v>4994</v>
+      </c>
+      <c r="I89">
+        <v>-32.1</v>
       </c>
       <c r="J89">
+        <v>0.3</v>
+      </c>
+      <c r="K89" t="s">
+        <v>102</v>
+      </c>
+      <c r="L89" t="s">
+        <v>140</v>
+      </c>
+      <c r="M89">
         <v>77.8</v>
       </c>
-      <c r="K89">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="N89">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B90">
         <v>2554</v>
@@ -3928,22 +4738,31 @@
       <c r="G90">
         <v>4312</v>
       </c>
-      <c r="H90" t="s">
-        <v>100</v>
-      </c>
-      <c r="I90" t="s">
-        <v>137</v>
+      <c r="H90">
+        <v>6780</v>
+      </c>
+      <c r="I90">
+        <v>-36.4</v>
       </c>
       <c r="J90">
+        <v>0.4</v>
+      </c>
+      <c r="K90" t="s">
+        <v>103</v>
+      </c>
+      <c r="L90" t="s">
+        <v>140</v>
+      </c>
+      <c r="M90">
         <v>59.2</v>
       </c>
-      <c r="K90">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="N90">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B91">
         <v>2240</v>
@@ -3963,22 +4782,31 @@
       <c r="G91">
         <v>3433</v>
       </c>
-      <c r="H91" t="s">
-        <v>101</v>
-      </c>
-      <c r="I91" t="s">
-        <v>137</v>
+      <c r="H91">
+        <v>5841</v>
+      </c>
+      <c r="I91">
+        <v>-41.2</v>
       </c>
       <c r="J91">
+        <v>0.3</v>
+      </c>
+      <c r="K91" t="s">
+        <v>104</v>
+      </c>
+      <c r="L91" t="s">
+        <v>140</v>
+      </c>
+      <c r="M91">
         <v>65.2</v>
       </c>
-      <c r="K91">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="N91">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B92">
         <v>2708</v>
@@ -3998,22 +4826,31 @@
       <c r="G92">
         <v>4047</v>
       </c>
-      <c r="H92" t="s">
-        <v>102</v>
-      </c>
-      <c r="I92" t="s">
-        <v>137</v>
+      <c r="H92">
+        <v>6229</v>
+      </c>
+      <c r="I92">
+        <v>-35</v>
       </c>
       <c r="J92">
+        <v>0.4</v>
+      </c>
+      <c r="K92" t="s">
+        <v>105</v>
+      </c>
+      <c r="L92" t="s">
+        <v>140</v>
+      </c>
+      <c r="M92">
         <v>66.90000000000001</v>
       </c>
-      <c r="K92">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="N92">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <v>2389</v>
@@ -4033,22 +4870,31 @@
       <c r="G93">
         <v>3767</v>
       </c>
-      <c r="H93" t="s">
-        <v>103</v>
-      </c>
-      <c r="I93" t="s">
-        <v>137</v>
+      <c r="H93">
+        <v>6523</v>
+      </c>
+      <c r="I93">
+        <v>-42.3</v>
       </c>
       <c r="J93">
+        <v>0.3</v>
+      </c>
+      <c r="K93" t="s">
+        <v>106</v>
+      </c>
+      <c r="L93" t="s">
+        <v>140</v>
+      </c>
+      <c r="M93">
         <v>63.4</v>
       </c>
-      <c r="K93">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="N93">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <v>2389</v>
@@ -4068,22 +4914,31 @@
       <c r="G94">
         <v>3307</v>
       </c>
-      <c r="H94" t="s">
-        <v>104</v>
-      </c>
-      <c r="I94" t="s">
-        <v>137</v>
+      <c r="H94">
+        <v>6489</v>
+      </c>
+      <c r="I94">
+        <v>-49</v>
       </c>
       <c r="J94">
+        <v>0.3</v>
+      </c>
+      <c r="K94" t="s">
+        <v>107</v>
+      </c>
+      <c r="L94" t="s">
+        <v>140</v>
+      </c>
+      <c r="M94">
         <v>72.2</v>
       </c>
-      <c r="K94">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="N94">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B95">
         <v>2815</v>
@@ -4103,22 +4958,31 @@
       <c r="G95">
         <v>3706</v>
       </c>
-      <c r="H95" t="s">
-        <v>105</v>
-      </c>
-      <c r="I95" t="s">
-        <v>137</v>
+      <c r="H95">
+        <v>6345</v>
+      </c>
+      <c r="I95">
+        <v>-41.6</v>
       </c>
       <c r="J95">
+        <v>0.3</v>
+      </c>
+      <c r="K95" t="s">
+        <v>108</v>
+      </c>
+      <c r="L95" t="s">
+        <v>140</v>
+      </c>
+      <c r="M95">
         <v>76</v>
       </c>
-      <c r="K95">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="N95">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>3270</v>
@@ -4138,22 +5002,31 @@
       <c r="G96">
         <v>3944</v>
       </c>
-      <c r="H96" t="s">
-        <v>106</v>
-      </c>
-      <c r="I96" t="s">
-        <v>137</v>
+      <c r="H96">
+        <v>5809</v>
+      </c>
+      <c r="I96">
+        <v>-32.1</v>
       </c>
       <c r="J96">
+        <v>0.4</v>
+      </c>
+      <c r="K96" t="s">
+        <v>109</v>
+      </c>
+      <c r="L96" t="s">
+        <v>140</v>
+      </c>
+      <c r="M96">
         <v>82.90000000000001</v>
       </c>
-      <c r="K96">
+      <c r="N96">
         <v>0.4</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B97">
         <v>1813</v>
@@ -4173,22 +5046,31 @@
       <c r="G97">
         <v>2288</v>
       </c>
-      <c r="H97" t="s">
-        <v>107</v>
-      </c>
-      <c r="I97" t="s">
-        <v>137</v>
+      <c r="H97">
+        <v>3912</v>
+      </c>
+      <c r="I97">
+        <v>-41.5</v>
       </c>
       <c r="J97">
+        <v>0.2</v>
+      </c>
+      <c r="K97" t="s">
+        <v>110</v>
+      </c>
+      <c r="L97" t="s">
+        <v>140</v>
+      </c>
+      <c r="M97">
         <v>79.2</v>
       </c>
-      <c r="K97">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="N97">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B98">
         <v>2120</v>
@@ -4208,22 +5090,31 @@
       <c r="G98">
         <v>2761</v>
       </c>
-      <c r="H98" t="s">
-        <v>108</v>
-      </c>
-      <c r="I98" t="s">
-        <v>137</v>
+      <c r="H98">
+        <v>3885</v>
+      </c>
+      <c r="I98">
+        <v>-28.9</v>
       </c>
       <c r="J98">
+        <v>0.3</v>
+      </c>
+      <c r="K98" t="s">
+        <v>111</v>
+      </c>
+      <c r="L98" t="s">
+        <v>140</v>
+      </c>
+      <c r="M98">
         <v>76.8</v>
       </c>
-      <c r="K98">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="N98">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B99">
         <v>2464</v>
@@ -4243,22 +5134,31 @@
       <c r="G99">
         <v>3200</v>
       </c>
-      <c r="H99" t="s">
-        <v>109</v>
-      </c>
-      <c r="I99" t="s">
-        <v>137</v>
+      <c r="H99">
+        <v>4025</v>
+      </c>
+      <c r="I99">
+        <v>-20.5</v>
       </c>
       <c r="J99">
+        <v>0.3</v>
+      </c>
+      <c r="K99" t="s">
+        <v>112</v>
+      </c>
+      <c r="L99" t="s">
+        <v>140</v>
+      </c>
+      <c r="M99">
         <v>77</v>
       </c>
-      <c r="K99">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="N99">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B100">
         <v>2890</v>
@@ -4278,22 +5178,31 @@
       <c r="G100">
         <v>3545</v>
       </c>
-      <c r="H100" t="s">
-        <v>110</v>
-      </c>
-      <c r="I100" t="s">
-        <v>137</v>
+      <c r="H100">
+        <v>3977</v>
+      </c>
+      <c r="I100">
+        <v>-10.9</v>
       </c>
       <c r="J100">
+        <v>0.3</v>
+      </c>
+      <c r="K100" t="s">
+        <v>113</v>
+      </c>
+      <c r="L100" t="s">
+        <v>140</v>
+      </c>
+      <c r="M100">
         <v>81.5</v>
       </c>
-      <c r="K100">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="N100">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B101">
         <v>3233</v>
@@ -4313,22 +5222,31 @@
       <c r="G101">
         <v>4147</v>
       </c>
-      <c r="H101" t="s">
-        <v>111</v>
-      </c>
-      <c r="I101" t="s">
-        <v>137</v>
+      <c r="H101">
+        <v>3389</v>
+      </c>
+      <c r="I101">
+        <v>22.4</v>
       </c>
       <c r="J101">
+        <v>0.3</v>
+      </c>
+      <c r="K101" t="s">
+        <v>114</v>
+      </c>
+      <c r="L101" t="s">
+        <v>140</v>
+      </c>
+      <c r="M101">
         <v>78</v>
       </c>
-      <c r="K101">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="N101">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B102">
         <v>3020</v>
@@ -4348,22 +5266,31 @@
       <c r="G102">
         <v>4479</v>
       </c>
-      <c r="H102" t="s">
-        <v>112</v>
-      </c>
-      <c r="I102" t="s">
-        <v>137</v>
+      <c r="H102">
+        <v>4312</v>
+      </c>
+      <c r="I102">
+        <v>3.9</v>
       </c>
       <c r="J102">
+        <v>0.4</v>
+      </c>
+      <c r="K102" t="s">
+        <v>115</v>
+      </c>
+      <c r="L102" t="s">
+        <v>140</v>
+      </c>
+      <c r="M102">
         <v>67.40000000000001</v>
       </c>
-      <c r="K102">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="N102">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B103">
         <v>2882</v>
@@ -4383,22 +5310,31 @@
       <c r="G103">
         <v>3959</v>
       </c>
-      <c r="H103" t="s">
-        <v>113</v>
-      </c>
-      <c r="I103" t="s">
-        <v>137</v>
+      <c r="H103">
+        <v>3433</v>
+      </c>
+      <c r="I103">
+        <v>15.3</v>
       </c>
       <c r="J103">
+        <v>0.3</v>
+      </c>
+      <c r="K103" t="s">
+        <v>116</v>
+      </c>
+      <c r="L103" t="s">
+        <v>140</v>
+      </c>
+      <c r="M103">
         <v>72.8</v>
       </c>
-      <c r="K103">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="N103">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B104">
         <v>2864</v>
@@ -4418,22 +5354,31 @@
       <c r="G104">
         <v>3819</v>
       </c>
-      <c r="H104" t="s">
-        <v>114</v>
-      </c>
-      <c r="I104" t="s">
-        <v>137</v>
+      <c r="H104">
+        <v>4047</v>
+      </c>
+      <c r="I104">
+        <v>-5.6</v>
       </c>
       <c r="J104">
+        <v>0.3</v>
+      </c>
+      <c r="K104" t="s">
+        <v>117</v>
+      </c>
+      <c r="L104" t="s">
+        <v>140</v>
+      </c>
+      <c r="M104">
         <v>75</v>
       </c>
-      <c r="K104">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="N104">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B105">
         <v>3058</v>
@@ -4453,22 +5398,31 @@
       <c r="G105">
         <v>4277</v>
       </c>
-      <c r="H105" t="s">
-        <v>115</v>
-      </c>
-      <c r="I105" t="s">
-        <v>137</v>
+      <c r="H105">
+        <v>3767</v>
+      </c>
+      <c r="I105">
+        <v>13.5</v>
       </c>
       <c r="J105">
+        <v>0.3</v>
+      </c>
+      <c r="K105" t="s">
+        <v>118</v>
+      </c>
+      <c r="L105" t="s">
+        <v>140</v>
+      </c>
+      <c r="M105">
         <v>71.5</v>
       </c>
-      <c r="K105">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="N105">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B106">
         <v>3312</v>
@@ -4488,22 +5442,31 @@
       <c r="G106">
         <v>4482</v>
       </c>
-      <c r="H106" t="s">
-        <v>116</v>
-      </c>
-      <c r="I106" t="s">
-        <v>137</v>
+      <c r="H106">
+        <v>3307</v>
+      </c>
+      <c r="I106">
+        <v>35.5</v>
       </c>
       <c r="J106">
+        <v>0.4</v>
+      </c>
+      <c r="K106" t="s">
+        <v>119</v>
+      </c>
+      <c r="L106" t="s">
+        <v>140</v>
+      </c>
+      <c r="M106">
         <v>73.90000000000001</v>
       </c>
-      <c r="K106">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="N106">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B107">
         <v>3827</v>
@@ -4523,22 +5486,31 @@
       <c r="G107">
         <v>4934</v>
       </c>
-      <c r="H107" t="s">
-        <v>117</v>
-      </c>
-      <c r="I107" t="s">
-        <v>137</v>
+      <c r="H107">
+        <v>3706</v>
+      </c>
+      <c r="I107">
+        <v>33.1</v>
       </c>
       <c r="J107">
+        <v>0.3</v>
+      </c>
+      <c r="K107" t="s">
+        <v>120</v>
+      </c>
+      <c r="L107" t="s">
+        <v>140</v>
+      </c>
+      <c r="M107">
         <v>77.59999999999999</v>
       </c>
-      <c r="K107">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="N107">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B108">
         <v>3392</v>
@@ -4558,22 +5530,31 @@
       <c r="G108">
         <v>4340</v>
       </c>
-      <c r="H108" t="s">
-        <v>118</v>
-      </c>
-      <c r="I108" t="s">
-        <v>137</v>
+      <c r="H108">
+        <v>3944</v>
+      </c>
+      <c r="I108">
+        <v>10</v>
       </c>
       <c r="J108">
+        <v>0.3</v>
+      </c>
+      <c r="K108" t="s">
+        <v>121</v>
+      </c>
+      <c r="L108" t="s">
+        <v>140</v>
+      </c>
+      <c r="M108">
         <v>78.2</v>
       </c>
-      <c r="K108">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="N108">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B109">
         <v>1967</v>
@@ -4593,22 +5574,31 @@
       <c r="G109">
         <v>2603</v>
       </c>
-      <c r="H109" t="s">
-        <v>119</v>
-      </c>
-      <c r="I109" t="s">
-        <v>137</v>
+      <c r="H109">
+        <v>2288</v>
+      </c>
+      <c r="I109">
+        <v>13.8</v>
       </c>
       <c r="J109">
+        <v>0.2</v>
+      </c>
+      <c r="K109" t="s">
+        <v>122</v>
+      </c>
+      <c r="L109" t="s">
+        <v>140</v>
+      </c>
+      <c r="M109">
         <v>75.59999999999999</v>
       </c>
-      <c r="K109">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="N109">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B110">
         <v>1968</v>
@@ -4628,22 +5618,31 @@
       <c r="G110">
         <v>2731</v>
       </c>
-      <c r="H110" t="s">
-        <v>120</v>
-      </c>
-      <c r="I110" t="s">
-        <v>137</v>
+      <c r="H110">
+        <v>2761</v>
+      </c>
+      <c r="I110">
+        <v>-1.1</v>
       </c>
       <c r="J110">
+        <v>0.2</v>
+      </c>
+      <c r="K110" t="s">
+        <v>123</v>
+      </c>
+      <c r="L110" t="s">
+        <v>140</v>
+      </c>
+      <c r="M110">
         <v>72.09999999999999</v>
       </c>
-      <c r="K110">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="N110">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B111">
         <v>1685</v>
@@ -4663,22 +5662,31 @@
       <c r="G111">
         <v>2384</v>
       </c>
-      <c r="H111" t="s">
-        <v>121</v>
-      </c>
-      <c r="I111" t="s">
-        <v>137</v>
+      <c r="H111">
+        <v>3200</v>
+      </c>
+      <c r="I111">
+        <v>-25.5</v>
       </c>
       <c r="J111">
+        <v>0.2</v>
+      </c>
+      <c r="K111" t="s">
+        <v>124</v>
+      </c>
+      <c r="L111" t="s">
+        <v>140</v>
+      </c>
+      <c r="M111">
         <v>70.7</v>
       </c>
-      <c r="K111">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="N111">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B112">
         <v>2931</v>
@@ -4698,22 +5706,31 @@
       <c r="G112">
         <v>3583</v>
       </c>
-      <c r="H112" t="s">
-        <v>122</v>
-      </c>
-      <c r="I112" t="s">
-        <v>137</v>
+      <c r="H112">
+        <v>3545</v>
+      </c>
+      <c r="I112">
+        <v>1.1</v>
       </c>
       <c r="J112">
+        <v>0.2</v>
+      </c>
+      <c r="K112" t="s">
+        <v>125</v>
+      </c>
+      <c r="L112" t="s">
+        <v>140</v>
+      </c>
+      <c r="M112">
         <v>81.8</v>
       </c>
-      <c r="K112">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="N112">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B113">
         <v>3238</v>
@@ -4733,22 +5750,31 @@
       <c r="G113">
         <v>4381</v>
       </c>
-      <c r="H113" t="s">
-        <v>123</v>
-      </c>
-      <c r="I113" t="s">
-        <v>137</v>
+      <c r="H113">
+        <v>4147</v>
+      </c>
+      <c r="I113">
+        <v>5.6</v>
       </c>
       <c r="J113">
+        <v>0.3</v>
+      </c>
+      <c r="K113" t="s">
+        <v>126</v>
+      </c>
+      <c r="L113" t="s">
+        <v>140</v>
+      </c>
+      <c r="M113">
         <v>73.90000000000001</v>
       </c>
-      <c r="K113">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="N113">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B114">
         <v>3400</v>
@@ -4768,22 +5794,31 @@
       <c r="G114">
         <v>4856</v>
       </c>
-      <c r="H114" t="s">
-        <v>124</v>
-      </c>
-      <c r="I114" t="s">
-        <v>137</v>
+      <c r="H114">
+        <v>4479</v>
+      </c>
+      <c r="I114">
+        <v>8.4</v>
       </c>
       <c r="J114">
+        <v>0.3</v>
+      </c>
+      <c r="K114" t="s">
+        <v>127</v>
+      </c>
+      <c r="L114" t="s">
+        <v>140</v>
+      </c>
+      <c r="M114">
         <v>70</v>
       </c>
-      <c r="K114">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="N114">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B115">
         <v>3039</v>
@@ -4803,22 +5838,31 @@
       <c r="G115">
         <v>4136</v>
       </c>
-      <c r="H115" t="s">
-        <v>125</v>
-      </c>
-      <c r="I115" t="s">
-        <v>137</v>
+      <c r="H115">
+        <v>3959</v>
+      </c>
+      <c r="I115">
+        <v>4.5</v>
       </c>
       <c r="J115">
+        <v>0.3</v>
+      </c>
+      <c r="K115" t="s">
+        <v>128</v>
+      </c>
+      <c r="L115" t="s">
+        <v>140</v>
+      </c>
+      <c r="M115">
         <v>73.5</v>
       </c>
-      <c r="K115">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="N115">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B116">
         <v>3259</v>
@@ -4838,22 +5882,31 @@
       <c r="G116">
         <v>4388</v>
       </c>
-      <c r="H116" t="s">
-        <v>126</v>
-      </c>
-      <c r="I116" t="s">
-        <v>137</v>
+      <c r="H116">
+        <v>3819</v>
+      </c>
+      <c r="I116">
+        <v>14.9</v>
       </c>
       <c r="J116">
+        <v>0.3</v>
+      </c>
+      <c r="K116" t="s">
+        <v>129</v>
+      </c>
+      <c r="L116" t="s">
+        <v>140</v>
+      </c>
+      <c r="M116">
         <v>74.3</v>
       </c>
-      <c r="K116">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="N116">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B117">
         <v>3861</v>
@@ -4873,22 +5926,31 @@
       <c r="G117">
         <v>5915</v>
       </c>
-      <c r="H117" t="s">
-        <v>127</v>
-      </c>
-      <c r="I117" t="s">
-        <v>137</v>
+      <c r="H117">
+        <v>4277</v>
+      </c>
+      <c r="I117">
+        <v>38.3</v>
       </c>
       <c r="J117">
+        <v>0.4</v>
+      </c>
+      <c r="K117" t="s">
+        <v>130</v>
+      </c>
+      <c r="L117" t="s">
+        <v>140</v>
+      </c>
+      <c r="M117">
         <v>65.3</v>
       </c>
-      <c r="K117">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="N117">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B118">
         <v>3550</v>
@@ -4908,22 +5970,31 @@
       <c r="G118">
         <v>4513</v>
       </c>
-      <c r="H118" t="s">
-        <v>128</v>
-      </c>
-      <c r="I118" t="s">
-        <v>137</v>
+      <c r="H118">
+        <v>4482</v>
+      </c>
+      <c r="I118">
+        <v>0.7</v>
       </c>
       <c r="J118">
+        <v>0.3</v>
+      </c>
+      <c r="K118" t="s">
+        <v>131</v>
+      </c>
+      <c r="L118" t="s">
+        <v>140</v>
+      </c>
+      <c r="M118">
         <v>78.7</v>
       </c>
-      <c r="K118">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="N118">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B119">
         <v>3781</v>
@@ -4943,22 +6014,31 @@
       <c r="G119">
         <v>4951</v>
       </c>
-      <c r="H119" t="s">
-        <v>129</v>
-      </c>
-      <c r="I119" t="s">
-        <v>137</v>
+      <c r="H119">
+        <v>4934</v>
+      </c>
+      <c r="I119">
+        <v>0.3</v>
       </c>
       <c r="J119">
+        <v>0.3</v>
+      </c>
+      <c r="K119" t="s">
+        <v>132</v>
+      </c>
+      <c r="L119" t="s">
+        <v>140</v>
+      </c>
+      <c r="M119">
         <v>76.40000000000001</v>
       </c>
-      <c r="K119">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="N119">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B120">
         <v>3547</v>
@@ -4978,22 +6058,31 @@
       <c r="G120">
         <v>4422</v>
       </c>
-      <c r="H120" t="s">
-        <v>130</v>
-      </c>
-      <c r="I120" t="s">
-        <v>137</v>
+      <c r="H120">
+        <v>4340</v>
+      </c>
+      <c r="I120">
+        <v>1.9</v>
       </c>
       <c r="J120">
+        <v>0.3</v>
+      </c>
+      <c r="K120" t="s">
+        <v>133</v>
+      </c>
+      <c r="L120" t="s">
+        <v>140</v>
+      </c>
+      <c r="M120">
         <v>80.2</v>
       </c>
-      <c r="K120">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="N120">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B121">
         <v>2299</v>
@@ -5013,22 +6102,31 @@
       <c r="G121">
         <v>3084</v>
       </c>
-      <c r="H121" t="s">
-        <v>131</v>
-      </c>
-      <c r="I121" t="s">
-        <v>137</v>
+      <c r="H121">
+        <v>2603</v>
+      </c>
+      <c r="I121">
+        <v>18.5</v>
       </c>
       <c r="J121">
+        <v>0.2</v>
+      </c>
+      <c r="K121" t="s">
+        <v>134</v>
+      </c>
+      <c r="L121" t="s">
+        <v>140</v>
+      </c>
+      <c r="M121">
         <v>74.5</v>
       </c>
-      <c r="K121">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="N121">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B122">
         <v>2006</v>
@@ -5048,22 +6146,31 @@
       <c r="G122">
         <v>2880</v>
       </c>
-      <c r="H122" t="s">
-        <v>132</v>
-      </c>
-      <c r="I122" t="s">
-        <v>137</v>
+      <c r="H122">
+        <v>2731</v>
+      </c>
+      <c r="I122">
+        <v>5.5</v>
       </c>
       <c r="J122">
+        <v>0.2</v>
+      </c>
+      <c r="K122" t="s">
+        <v>135</v>
+      </c>
+      <c r="L122" t="s">
+        <v>140</v>
+      </c>
+      <c r="M122">
         <v>69.7</v>
       </c>
-      <c r="K122">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="N122">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B123">
         <v>1045</v>
@@ -5083,22 +6190,31 @@
       <c r="G123">
         <v>1718</v>
       </c>
-      <c r="H123" t="s">
-        <v>133</v>
-      </c>
-      <c r="I123" t="s">
-        <v>137</v>
+      <c r="H123">
+        <v>2384</v>
+      </c>
+      <c r="I123">
+        <v>-27.9</v>
       </c>
       <c r="J123">
+        <v>0.3</v>
+      </c>
+      <c r="K123" t="s">
+        <v>136</v>
+      </c>
+      <c r="L123" t="s">
+        <v>140</v>
+      </c>
+      <c r="M123">
         <v>60.8</v>
       </c>
-      <c r="K123">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="N123">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B124">
         <v>73</v>
@@ -5118,22 +6234,31 @@
       <c r="G124">
         <v>248</v>
       </c>
-      <c r="H124" t="s">
-        <v>134</v>
-      </c>
-      <c r="I124" t="s">
+      <c r="H124">
+        <v>3583</v>
+      </c>
+      <c r="I124">
+        <v>-93.09999999999999</v>
+      </c>
+      <c r="J124">
+        <v>0.3</v>
+      </c>
+      <c r="K124" t="s">
         <v>137</v>
       </c>
-      <c r="J124">
+      <c r="L124" t="s">
+        <v>140</v>
+      </c>
+      <c r="M124">
         <v>29.4</v>
       </c>
-      <c r="K124">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B125">
         <v>11</v>
@@ -5153,22 +6278,31 @@
       <c r="G125">
         <v>55</v>
       </c>
-      <c r="H125" t="s">
-        <v>135</v>
-      </c>
-      <c r="I125" t="s">
-        <v>137</v>
+      <c r="H125">
+        <v>4381</v>
+      </c>
+      <c r="I125">
+        <v>-98.7</v>
       </c>
       <c r="J125">
+        <v>0.2</v>
+      </c>
+      <c r="K125" t="s">
+        <v>138</v>
+      </c>
+      <c r="L125" t="s">
+        <v>140</v>
+      </c>
+      <c r="M125">
         <v>20</v>
       </c>
-      <c r="K125">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B126">
         <v>10</v>
@@ -5188,17 +6322,26 @@
       <c r="G126">
         <v>179</v>
       </c>
-      <c r="H126" t="s">
-        <v>136</v>
-      </c>
-      <c r="I126" t="s">
-        <v>137</v>
+      <c r="H126">
+        <v>4856</v>
+      </c>
+      <c r="I126">
+        <v>-96.3</v>
       </c>
       <c r="J126">
+        <v>0.6</v>
+      </c>
+      <c r="K126" t="s">
+        <v>139</v>
+      </c>
+      <c r="L126" t="s">
+        <v>140</v>
+      </c>
+      <c r="M126">
         <v>5.6</v>
       </c>
-      <c r="K126">
-        <v>0.2</v>
+      <c r="N126">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
